--- a/dataset/day_2.xlsx
+++ b/dataset/day_2.xlsx
@@ -763,7 +763,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>G((Lab.AirQuality.low &amp; Lab.HumanState.detected) -&gt; (F[0, 10*60] Lab.air_quality_up))</t>
+          <t>#7</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -25935,7 +25935,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -35747,7 +35747,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -37091,7 +37091,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -39543,7 +39543,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.humidity_up -&gt; (F[0, 60*60] !MeetingRoomTwo.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -40727,7 +40727,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -43579,7 +43579,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -53203,7 +53203,7 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -53535,7 +53535,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -54667,7 +54667,7 @@
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1349" t="inlineStr">
@@ -54919,7 +54919,7 @@
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1355" t="inlineStr">
@@ -60011,7 +60011,7 @@
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1482" t="inlineStr">
@@ -67423,7 +67423,7 @@
       </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1667" t="inlineStr">
@@ -71235,7 +71235,7 @@
       </c>
       <c r="H1762" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1762" t="inlineStr">
